--- a/EmployeesPreferences.xlsx
+++ b/EmployeesPreferences.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Git repozitories\A.I. Work Schedule Generator\A.I.-Work-Schedule-Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C0BDBA-71E7-48DF-924E-5BEB2AE718FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D45616-5688-4978-95FB-B5EA187014B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{61FF716B-E068-41CD-A55E-546A81C63610}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Analiza" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$D$4:$W$13</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
   <si>
     <t>Poniedziałek</t>
   </si>
@@ -64,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +119,26 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,22 +150,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE4D2F5-3C15-4190-AA5C-B1BD7363096B}">
-  <dimension ref="D3:W13"/>
+  <dimension ref="D1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,682 +494,703 @@
     <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
     <row r="3" spans="4:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
     </row>
     <row r="4" spans="4:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>8</v>
       </c>
       <c r="Q4" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>8</v>
       </c>
       <c r="T4" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>1</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>1</v>
-      </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
         <f>SUM(E5:V5)</f>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>1</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
         <f t="shared" ref="W6:W12" si="0">SUM(E6:V6)</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>1</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <v>1</v>
-      </c>
-      <c r="W7" s="7">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>1</v>
-      </c>
-      <c r="R8" s="5">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5">
-        <v>0</v>
-      </c>
-      <c r="V8" s="5">
-        <v>1</v>
-      </c>
-      <c r="W8" s="7">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <v>1</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5">
-        <v>1</v>
-      </c>
-      <c r="V9" s="5">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="D10" s="5">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5">
-        <v>1</v>
-      </c>
-      <c r="T10" s="5">
-        <v>0</v>
-      </c>
-      <c r="U10" s="5">
-        <v>1</v>
-      </c>
-      <c r="V10" s="5">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <v>1</v>
-      </c>
-      <c r="S11" s="5">
-        <v>0</v>
-      </c>
-      <c r="T11" s="5">
-        <v>1</v>
-      </c>
-      <c r="U11" s="5">
-        <v>0</v>
-      </c>
-      <c r="V11" s="5">
-        <v>0</v>
-      </c>
-      <c r="W11" s="7">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>8</v>
       </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5">
-        <v>1</v>
-      </c>
-      <c r="T12" s="5">
-        <v>1</v>
-      </c>
-      <c r="U12" s="5">
-        <v>0</v>
-      </c>
-      <c r="V12" s="5">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <f>SUM(E5:E12)</f>
         <v>2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <f t="shared" ref="F13:V13" si="1">SUM(F5:F12)</f>
         <v>4</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
   </sheetData>
+  <autoFilter ref="D4:W13" xr:uid="{3EE4D2F5-3C15-4190-AA5C-B1BD7363096B}"/>
   <mergeCells count="6">
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="E3:G3"/>
@@ -1161,4 +1203,594 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD667CF-8EE9-477F-82B8-A0B734947E38}">
+  <dimension ref="B3:T12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE("Poniedziałek ",C3)</f>
+        <v>Poniedziałek Zmiana1</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:E4" si="0">CONCATENATE("Poniedziałek ",D3)</f>
+        <v>Poniedziałek Zmiana2</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Poniedziałek Zmiana3</v>
+      </c>
+      <c r="F4" t="str">
+        <f>CONCATENATE("Wtorek ",F3)</f>
+        <v>Wtorek Zmiana1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:I4" si="1">CONCATENATE("Wtorek ",G3)</f>
+        <v>Wtorek Zmiana2</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>Wtorek Zmiana3</v>
+      </c>
+      <c r="I4" t="str">
+        <f>CONCATENATE("Środa ",I3)</f>
+        <v>Środa Zmiana1</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:K4" si="2">CONCATENATE("Środa ",J3)</f>
+        <v>Środa Zmiana2</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>Środa Zmiana3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EmployeesPreferences.xlsx
+++ b/EmployeesPreferences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Git repozitories\A.I. Work Schedule Generator\A.I.-Work-Schedule-Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D45616-5688-4978-95FB-B5EA187014B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE3E26E-F476-4067-ACBB-5F9C185572A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{61FF716B-E068-41CD-A55E-546A81C63610}"/>
   </bookViews>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE4D2F5-3C15-4190-AA5C-B1BD7363096B}">
-  <dimension ref="D1:W15"/>
+  <dimension ref="D2:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,15 +494,10 @@
     <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
     <row r="2" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
     </row>
     <row r="3" spans="4:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E3" s="5" t="s">
@@ -515,11 +510,11 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
         <v>3</v>
       </c>
@@ -530,11 +525,11 @@
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="4:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D4" s="2" t="s">
@@ -558,13 +553,13 @@
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" t="s">
         <v>8</v>
       </c>
       <c r="N4" t="s">
@@ -585,13 +580,13 @@
       <c r="S4" t="s">
         <v>8</v>
       </c>
-      <c r="T4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="T4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="W4" s="1" t="s">
@@ -620,13 +615,13 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
         <v>0</v>
       </c>
       <c r="N5" s="3">
@@ -647,13 +642,13 @@
       <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>1</v>
-      </c>
-      <c r="V5" s="3">
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
         <v>0</v>
       </c>
       <c r="W5" s="4">
@@ -683,13 +678,13 @@
       <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
         <v>0</v>
       </c>
       <c r="N6" s="3">
@@ -710,13 +705,13 @@
       <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>1</v>
-      </c>
-      <c r="V6" s="3">
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
         <v>0</v>
       </c>
       <c r="W6" s="4">
@@ -746,13 +741,13 @@
       <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
         <v>0</v>
       </c>
       <c r="N7" s="3">
@@ -773,13 +768,13 @@
       <c r="S7" s="3">
         <v>0</v>
       </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6">
         <v>1</v>
       </c>
       <c r="W7" s="4">
@@ -809,13 +804,13 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
@@ -836,13 +831,13 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0</v>
+      </c>
+      <c r="V8" s="6">
         <v>1</v>
       </c>
       <c r="W8" s="4">
@@ -872,13 +867,13 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
@@ -899,13 +894,13 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>1</v>
+      </c>
+      <c r="V9" s="6">
         <v>0</v>
       </c>
       <c r="W9" s="4">
@@ -935,13 +930,13 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>1</v>
       </c>
       <c r="N10" s="3">
@@ -962,13 +957,13 @@
       <c r="S10" s="3">
         <v>1</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6">
         <v>0</v>
       </c>
       <c r="W10" s="4">
@@ -998,13 +993,13 @@
       <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
         <v>1</v>
       </c>
       <c r="N11" s="3">
@@ -1025,13 +1020,13 @@
       <c r="S11" s="3">
         <v>0</v>
       </c>
-      <c r="T11" s="3">
-        <v>1</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
+      <c r="T11" s="6">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
         <v>0</v>
       </c>
       <c r="W11" s="4">
@@ -1061,13 +1056,13 @@
       <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
@@ -1088,13 +1083,13 @@
       <c r="S12" s="3">
         <v>1</v>
       </c>
-      <c r="T12" s="3">
-        <v>1</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
+      <c r="T12" s="6">
+        <v>1</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
         <v>0</v>
       </c>
       <c r="W12" s="4">
@@ -1130,15 +1125,15 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1166,28 +1161,23 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="4:23" x14ac:dyDescent="0.35">
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="D4:W13" xr:uid="{3EE4D2F5-3C15-4190-AA5C-B1BD7363096B}"/>
